--- a/src/ontology/report.xlsx
+++ b/src/ontology/report.xlsx
@@ -37238,12 +37238,12 @@
       </c>
       <c r="C1753" t="inlineStr">
         <is>
-          <t>Medial geniculate complex, ventral part</t>
+          <t>rhinal incisure</t>
         </is>
       </c>
       <c r="D1753" t="inlineStr">
         <is>
-          <t>&lt;http://purl.obolibrary.org/obo/MBA_1079&gt;</t>
+          <t>&lt;http://purl.obolibrary.org/obo/MBA_1078&gt;</t>
         </is>
       </c>
     </row>
